--- a/affs_unique1.xlsx
+++ b/affs_unique1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B135"/>
+  <dimension ref="A1:B136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1482,51 +1482,51 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>15030</v>
+        <v>15000</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Centre For Economic Policy Research</t>
+          <t>University Of Massachusetts</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>15000</v>
+        <v>9545</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>University Of Massachusetts</t>
+          <t>Federal Reserve Bank Of Chicago</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>9545</v>
+        <v>9472</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Federal Reserve Bank Of Chicago</t>
+          <t>Oxford University</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>9472</v>
+        <v>9641</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Oxford University</t>
+          <t>University Of Essex</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>9641</v>
+        <v>9778</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>University Of Essex</t>
+          <t>Centre For Economic Policy Research</t>
         </is>
       </c>
     </row>
@@ -1552,229 +1552,239 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>15518</v>
+        <v>21413</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Wesleyan University</t>
+          <t xml:space="preserve">Centre for Economic Policy Research </t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>21747</v>
+        <v>15518</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Brookings Institution</t>
+          <t>Wesleyan University</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>15903</v>
+        <v>21747</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>University College London</t>
+          <t>Brookings Institution</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>10870</v>
+        <v>15903</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>University Of Texas At Austin</t>
+          <t>University College London</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>21949</v>
+        <v>10870</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Universitat Pompeu Fabra</t>
+          <t>University Of Texas At Austin</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>16066</v>
+        <v>21949</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>George Washington University</t>
+          <t>Universitat Pompeu Fabra</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>22100</v>
+        <v>16066</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>The Hebrew University Of Jerusalem</t>
+          <t>George Washington University</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>22136</v>
+        <v>22100</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Stockholm University</t>
+          <t>The Hebrew University Of Jerusalem</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>22195</v>
+        <v>22136</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>American Bar Foundation</t>
+          <t>Stockholm University</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>11205</v>
+        <v>22195</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Canadian Institute For Advanced Research</t>
+          <t>American Bar Foundation</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>11332</v>
+        <v>11205</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Federal Reserve Board</t>
+          <t>Canadian Institute For Advanced Research</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>22588</v>
+        <v>11332</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>University Of Colorado</t>
+          <t>Federal Reserve Board</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>22644</v>
+        <v>22588</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Political Science</t>
+          <t>University Of Colorado</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>11527</v>
+        <v>22644</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Institute For Fiscal Studies</t>
+          <t>Political Science</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>16907</v>
+        <v>11527</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Institute For Fiscal Studies</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>11664</v>
+        <v>16907</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Tulane University</t>
+          <t>Statistics</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>17030</v>
+        <v>11664</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>University Of Oregon</t>
+          <t>Tulane University</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>23163</v>
+        <v>17030</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Arizona State University</t>
+          <t>University Of Oregon</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>17317</v>
+        <v>23163</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Uc Berkeley</t>
+          <t>Arizona State University</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>17254</v>
+        <v>17317</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>University Of Oxford</t>
+          <t>Uc Berkeley</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>17369</v>
+        <v>17254</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Booth School Of Business</t>
+          <t>University Of Oxford</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>17359</v>
+        <v>17369</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>University Of</t>
+          <t>Booth School Of Business</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
+        <v>17359</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>University Of</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
         <v>17518</v>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>Toulouse School Of Economics</t>
         </is>

--- a/affs_unique1.xlsx
+++ b/affs_unique1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B136"/>
+  <dimension ref="A1:B135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,11 +552,11 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>18066</v>
+        <v>18070</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Berkeley</t>
+          <t>University of California _ Berkeley</t>
         </is>
       </c>
     </row>
@@ -572,11 +572,11 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>1892</v>
+        <v>23542</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>University of California _ Los Angeles</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>University of California _ Davis</t>
         </is>
       </c>
     </row>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>San Diego</t>
+          <t>University of California _ San Diego</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Santa Barbara</t>
+          <t>University of California _ Santa Barbara</t>
         </is>
       </c>
     </row>
@@ -1482,51 +1482,51 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>15000</v>
+        <v>15030</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>University Of Massachusetts</t>
+          <t>Centre For Economic Policy Research</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>9545</v>
+        <v>15000</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Federal Reserve Bank Of Chicago</t>
+          <t>University Of Massachusetts</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>9472</v>
+        <v>9545</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Oxford University</t>
+          <t>Federal Reserve Bank Of Chicago</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>9641</v>
+        <v>9472</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>University Of Essex</t>
+          <t>Oxford University</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>9778</v>
+        <v>9641</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Centre For Economic Policy Research</t>
+          <t>University Of Essex</t>
         </is>
       </c>
     </row>
@@ -1552,239 +1552,229 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>21413</v>
+        <v>15518</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Centre for Economic Policy Research </t>
+          <t>Wesleyan University</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>15518</v>
+        <v>21747</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Wesleyan University</t>
+          <t>Brookings Institution</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>21747</v>
+        <v>15903</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Brookings Institution</t>
+          <t>University College London</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>15903</v>
+        <v>10870</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>University College London</t>
+          <t>University Of Texas At Austin</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>10870</v>
+        <v>21949</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>University Of Texas At Austin</t>
+          <t>Universitat Pompeu Fabra</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>21949</v>
+        <v>16066</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Universitat Pompeu Fabra</t>
+          <t>George Washington University</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>16066</v>
+        <v>22100</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>George Washington University</t>
+          <t>The Hebrew University Of Jerusalem</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>22100</v>
+        <v>22136</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>The Hebrew University Of Jerusalem</t>
+          <t>Stockholm University</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>22136</v>
+        <v>22195</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Stockholm University</t>
+          <t>American Bar Foundation</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>22195</v>
+        <v>11205</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>American Bar Foundation</t>
+          <t>Canadian Institute For Advanced Research</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>11205</v>
+        <v>11332</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Canadian Institute For Advanced Research</t>
+          <t>Federal Reserve Board</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>11332</v>
+        <v>22588</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Federal Reserve Board</t>
+          <t>University Of Colorado</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>22588</v>
+        <v>22644</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>University Of Colorado</t>
+          <t>Political Science</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>22644</v>
+        <v>11527</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Political Science</t>
+          <t>Institute For Fiscal Studies</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>11527</v>
+        <v>16907</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Institute For Fiscal Studies</t>
+          <t>Statistics</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>16907</v>
+        <v>11664</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Tulane University</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>11664</v>
+        <v>17030</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Tulane University</t>
+          <t>University Of Oregon</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>17030</v>
+        <v>23163</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>University Of Oregon</t>
+          <t>Arizona State University</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>23163</v>
+        <v>17317</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Arizona State University</t>
+          <t>Uc Berkeley</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>17317</v>
+        <v>17254</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Uc Berkeley</t>
+          <t>University Of Oxford</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>17254</v>
+        <v>17369</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>University Of Oxford</t>
+          <t>Booth School Of Business</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>17369</v>
+        <v>17359</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Booth School Of Business</t>
+          <t>University Of</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>17359</v>
+        <v>17518</v>
       </c>
       <c r="B135" t="inlineStr">
-        <is>
-          <t>University Of</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>17518</v>
-      </c>
-      <c r="B136" t="inlineStr">
         <is>
           <t>Toulouse School Of Economics</t>
         </is>

--- a/affs_unique1.xlsx
+++ b/affs_unique1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B135"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,7 +442,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>17683</v>
+        <v>5953</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -452,57 +452,57 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1095</v>
+        <v>129</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>University Of Chicago</t>
+          <t>Washington</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1101</v>
+        <v>6003</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>University Of California</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>1163</v>
+        <v>6066</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>University Of California</t>
+          <t>New York City</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>17796</v>
+        <v>6335</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>University of California, Berkeley</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>12046</v>
+        <v>6416</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Brown University</t>
+          <t>Massachusetts Institute Of Technology</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>1766</v>
+        <v>583</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -512,77 +512,77 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>1730</v>
+        <v>634</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Massachusetts Institute Of Technology</t>
+          <t>Brown University</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>1819</v>
+        <v>706</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>University Of Michigan</t>
+          <t>Princeton University</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>1823</v>
+        <v>6680</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Duke University</t>
+          <t>University Of Michigan</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>1804</v>
+        <v>6663</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Iowa State College</t>
+          <t>Yale University</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>18070</v>
+        <v>6665</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>University of California _ Berkeley</t>
+          <t>University Of Chicago</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>18093</v>
+        <v>6856</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Princeton University</t>
+          <t>University Of Pennsylvania</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>23542</v>
+        <v>6844</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>University of California _ Los Angeles</t>
+          <t>Carnegie Institute Of Technology</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>12382</v>
+        <v>1048</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -592,27 +592,27 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>2148</v>
+        <v>1042</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Yale University</t>
+          <t>University Of Virginia</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>12411</v>
+        <v>1035</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>University Of Virginia</t>
+          <t>University Of Cambridge</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>2193</v>
+        <v>6979</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -622,167 +622,167 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>2234</v>
+        <v>1053</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>The Rand Corporation</t>
+          <t>University Of Wisconsin</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>2254</v>
+        <v>1162</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>University Of Washington</t>
+          <t>Oxford</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>18350</v>
+        <v>1124</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>University Of Wisconsin</t>
+          <t>University of California, Los Angeles</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>18396</v>
+        <v>7067</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Carnegie Institute Of Technology</t>
+          <t>Duke University</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>18488</v>
+        <v>1318</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>University Of Pennsylvania</t>
+          <t>University Of Illinois</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>2415</v>
+        <v>1353</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Vanderbilt University</t>
+          <t>University Of Washington</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>2396</v>
+        <v>1376</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>University Of Minnesota</t>
+          <t>London School Of Economics</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>2423</v>
+        <v>7278</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>New York University</t>
+          <t>The Rand Corporation</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>12636</v>
+        <v>7415</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>University Of Cambridge</t>
+          <t>Michigan State University</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>2602</v>
+        <v>7417</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>London School Of Economics</t>
+          <t>Cornell University</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>2597</v>
+        <v>7745</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>The Johns Hopkins University</t>
+          <t>University Of Maryland</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>18582</v>
+        <v>7840</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>University Of Illinois</t>
+          <t>New York University</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>12769</v>
+        <v>7841</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Michigan State University</t>
+          <t>University Of Rochester</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>18652</v>
+        <v>2102</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Cornell University</t>
+          <t>National Bureau Of Economic Research</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>12890</v>
+        <v>7997</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Purdue University</t>
+          <t>University Of Minnesota</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>18777</v>
+        <v>7992</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Oxford</t>
+          <t>Ohio State University</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>18836</v>
+        <v>8090</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -792,127 +792,127 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3074</v>
+        <v>2581</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Santa Monica</t>
+          <t>Hebrew University</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3497</v>
+        <v>2819</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ohio State University</t>
+          <t>Vanderbilt University</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3616</v>
+        <v>2801</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Johns Hopkins University</t>
+          <t>Dartmouth College</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>13081</v>
+        <v>2943</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>University Of Rochester</t>
+          <t>Department Of Economics</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>13120</v>
+        <v>8910</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>National Bureau Of Economic Research</t>
+          <t>Board Of Governors Of The Federal Reserve System</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>13185</v>
+        <v>8863</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>University Of Maryland</t>
+          <t>University of California, San Diego</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3799</v>
+        <v>3150</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Food Research Institute</t>
+          <t>Graduate School Of Business</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3819</v>
+        <v>3277</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Indiana University</t>
+          <t>Boston University</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3862</v>
+        <v>3301</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Hebrew University</t>
+          <t>University Of Western Ontario</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>4576</v>
+        <v>3330</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>University Of Toronto</t>
+          <t>University of California, Davis</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>4426</v>
+        <v>3510</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Dartmouth College</t>
+          <t>University Of Southern California</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>4523</v>
+        <v>3507</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Carnegie-Mellon University</t>
+          <t>International Monetary Fund</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>4722</v>
+        <v>3707</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -922,47 +922,47 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>4868</v>
+        <v>3823</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Rand Corporation</t>
+          <t xml:space="preserve">Centre for Economic Policy Research </t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>5016</v>
+        <v>9753</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>International Monetary Fund</t>
+          <t>Centre For Economic Policy Research</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>5069</v>
+        <v>9693</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Washington University</t>
+          <t>Federal Reserve Bank Of New York</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>4946</v>
+        <v>3892</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>The Hebrew University</t>
+          <t>University College London</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>13515</v>
+        <v>3915</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -972,811 +972,141 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>5284</v>
+        <v>4045</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Wayne State University</t>
+          <t>Santa Monica</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>5120</v>
+        <v>10169</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>University Of British Columbia</t>
+          <t>University Of Toronto</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>5247</v>
+        <v>4369</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Federal Reserve Bank Of New York</t>
+          <t>World Bank</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>23773</v>
+        <v>4629</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Jerusalem</t>
+          <t>California Institute Of Technology</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>5528</v>
+        <v>4705</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>University Of North Carolina</t>
+          <t>Tel Aviv University</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>13527</v>
+        <v>10980</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Board Of Governors Of The Federal Reserve System</t>
+          <t>Princeton</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>5594</v>
+        <v>10926</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Boston College</t>
+          <t>Stockholm University</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>13609</v>
+        <v>10927</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Virginia Polytechnic Institute</t>
+          <t>University Of British Columbia</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>19596</v>
+        <v>5125</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Tel-Aviv University</t>
+          <t>Institute For International Economic Studies</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>193</v>
+        <v>5184</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Queen'S University</t>
+          <t>Statistics</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>19628</v>
+        <v>11196</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>University Of Western Ontario</t>
+          <t>Universitat Pompeu Fabra</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>6225</v>
+        <v>11460</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Federal Reserve System</t>
+          <t>Uc Berkeley</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>6185</v>
+        <v>11512</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Booth School Of Business</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>19706</v>
+        <v>5744</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>University Of Florida</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>6393</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Hebrew University Of Jerusalem</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>6571</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Carleton University</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>6744</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>University Of Houston</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>7067</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Boston University</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>7331</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Monash University</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>14140</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>University of California _ Davis</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>14139</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>State University</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>14136</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Williams College</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>7190</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>University Of Southern California</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>7420</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Rice University</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>7647</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>California Institute Of Technology</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>23876</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>University of California _ San Diego</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>20042</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Mcgill University</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>7790</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Board Of Governors</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>7809</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Southern Methodist University</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>20179</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Federal Reserve Bank Of Minneapolis</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>8005</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>City University Of New York</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>7976</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Hoover Institution</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>7926</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Rutgers University</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>14323</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Florida State University</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>8155</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Mcmaster University</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>8137</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>University Of Iowa</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>20338</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>University Of Pittsburgh</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>8349</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Resources For The Future</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>14701</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Graduate School Of Business</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>20558</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Department Of Economics</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>14761</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Nuffield College</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>23925</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>University of California _ Santa Barbara</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>8616</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>State University Of New York At Buffalo</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>8845</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Tel Aviv University</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>8861</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>University Of Arizona</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>8863</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>World Bank</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>8987</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Institute For International Economic Studies</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>9077</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Australian National University</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>14970</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>University Of Texas</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>9298</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>University Of Kentucky</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>9352</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Carnegie Mellon University</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>15030</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Centre For Economic Policy Research</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>15000</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>University Of Massachusetts</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>9545</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Federal Reserve Bank Of Chicago</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>9472</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Oxford University</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>9641</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>University Of Essex</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>21221</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Princeton</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>9943</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>University Of New South Wales</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>15518</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Wesleyan University</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>21747</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Brookings Institution</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>15903</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>University College London</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>10870</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>University Of Texas At Austin</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>21949</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Universitat Pompeu Fabra</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>16066</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>George Washington University</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>22100</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>The Hebrew University Of Jerusalem</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>22136</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Stockholm University</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>22195</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>American Bar Foundation</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>11205</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Canadian Institute For Advanced Research</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>11332</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Federal Reserve Board</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>22588</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>University Of Colorado</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>22644</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Political Science</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>11527</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Institute For Fiscal Studies</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>16907</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Statistics</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>11664</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Tulane University</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>17030</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>University Of Oregon</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>23163</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Arizona State University</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>17317</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Uc Berkeley</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>17254</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
           <t>University Of Oxford</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>17369</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Booth School Of Business</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>17359</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>University Of</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>17518</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Toulouse School Of Economics</t>
         </is>
       </c>
     </row>
